--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/F10-F3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/F10-F3.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.258459</v>
+        <v>4.793498</v>
       </c>
       <c r="H2">
-        <v>48.775377</v>
+        <v>14.380494</v>
       </c>
       <c r="I2">
-        <v>0.3917648288006151</v>
+        <v>0.6565493962715211</v>
       </c>
       <c r="J2">
-        <v>0.3917648288006151</v>
+        <v>0.6565493962715211</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>11.28709566666667</v>
+        <v>0.2054816666666667</v>
       </c>
       <c r="N2">
-        <v>33.861287</v>
+        <v>0.616445</v>
       </c>
       <c r="O2">
-        <v>0.2158446779538137</v>
+        <v>0.00496424614546655</v>
       </c>
       <c r="P2">
-        <v>0.2158446779538137</v>
+        <v>0.004964246145466549</v>
       </c>
       <c r="Q2">
-        <v>183.5107821255777</v>
+        <v>0.9849759582033335</v>
       </c>
       <c r="R2">
-        <v>1651.597039130199</v>
+        <v>8.86478362383</v>
       </c>
       <c r="S2">
-        <v>0.08456035330609972</v>
+        <v>0.003259272809749289</v>
       </c>
       <c r="T2">
-        <v>0.08456035330609972</v>
+        <v>0.003259272809749288</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.258459</v>
+        <v>4.793498</v>
       </c>
       <c r="H3">
-        <v>48.775377</v>
+        <v>14.380494</v>
       </c>
       <c r="I3">
-        <v>0.3917648288006151</v>
+        <v>0.6565493962715211</v>
       </c>
       <c r="J3">
-        <v>0.3917648288006151</v>
+        <v>0.6565493962715211</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>118.338787</v>
       </c>
       <c r="O3">
-        <v>0.75433628289025</v>
+        <v>0.9529850468799925</v>
       </c>
       <c r="P3">
-        <v>0.75433628289025</v>
+        <v>0.9529850468799924</v>
       </c>
       <c r="Q3">
-        <v>641.3354388497443</v>
+        <v>189.0855796023087</v>
       </c>
       <c r="R3">
-        <v>5772.018949647699</v>
+        <v>1701.770216420778</v>
       </c>
       <c r="S3">
-        <v>0.2955224247245912</v>
+        <v>0.6256817571848463</v>
       </c>
       <c r="T3">
-        <v>0.2955224247245912</v>
+        <v>0.6256817571848462</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.258459</v>
+        <v>4.793498</v>
       </c>
       <c r="H4">
-        <v>48.775377</v>
+        <v>14.380494</v>
       </c>
       <c r="I4">
-        <v>0.3917648288006151</v>
+        <v>0.6565493962715211</v>
       </c>
       <c r="J4">
-        <v>0.3917648288006151</v>
+        <v>0.6565493962715211</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.433165333333333</v>
+        <v>1.712817</v>
       </c>
       <c r="N4">
-        <v>4.299496</v>
+        <v>5.138451</v>
       </c>
       <c r="O4">
-        <v>0.02740661716383402</v>
+        <v>0.04138006727350978</v>
       </c>
       <c r="P4">
-        <v>0.02740661716383402</v>
+        <v>0.04138006727350978</v>
       </c>
       <c r="Q4">
-        <v>23.30105981222133</v>
+        <v>8.210384863866</v>
       </c>
       <c r="R4">
-        <v>209.709538309992</v>
+        <v>73.893463774794</v>
       </c>
       <c r="S4">
-        <v>0.01073694868119343</v>
+        <v>0.02716805818609778</v>
       </c>
       <c r="T4">
-        <v>0.01073694868119343</v>
+        <v>0.02716805818609777</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>16.258459</v>
+        <v>4.793498</v>
       </c>
       <c r="H5">
-        <v>48.775377</v>
+        <v>14.380494</v>
       </c>
       <c r="I5">
-        <v>0.3917648288006151</v>
+        <v>0.6565493962715211</v>
       </c>
       <c r="J5">
-        <v>0.3917648288006151</v>
+        <v>0.6565493962715211</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.126152</v>
+        <v>0.02775933333333333</v>
       </c>
       <c r="N5">
-        <v>0.378456</v>
+        <v>0.083278</v>
       </c>
       <c r="O5">
-        <v>0.002412421992102324</v>
+        <v>0.000670639701031176</v>
       </c>
       <c r="P5">
-        <v>0.002412421992102323</v>
+        <v>0.000670639701031176</v>
       </c>
       <c r="Q5">
-        <v>2.051037119768</v>
+        <v>0.1330643088146667</v>
       </c>
       <c r="R5">
-        <v>18.459334077912</v>
+        <v>1.197578779332</v>
       </c>
       <c r="S5">
-        <v>0.0009451020887308058</v>
+        <v>0.000440308090827732</v>
       </c>
       <c r="T5">
-        <v>0.0009451020887308053</v>
+        <v>0.000440308090827732</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>0.6205229999999999</v>
       </c>
       <c r="I6">
-        <v>0.004984053467425666</v>
+        <v>0.02833032029515766</v>
       </c>
       <c r="J6">
-        <v>0.004984053467425666</v>
+        <v>0.02833032029515767</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -803,28 +803,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>11.28709566666667</v>
+        <v>0.2054816666666667</v>
       </c>
       <c r="N6">
-        <v>33.861287</v>
+        <v>0.616445</v>
       </c>
       <c r="O6">
-        <v>0.2158446779538137</v>
+        <v>0.00496424614546655</v>
       </c>
       <c r="P6">
-        <v>0.2158446779538137</v>
+        <v>0.004964246145466549</v>
       </c>
       <c r="Q6">
-        <v>2.334634154789</v>
+        <v>0.04250203341499999</v>
       </c>
       <c r="R6">
-        <v>21.011707393101</v>
+        <v>0.382518300735</v>
       </c>
       <c r="S6">
-        <v>0.001075781415581081</v>
+        <v>0.0001406386833250692</v>
       </c>
       <c r="T6">
-        <v>0.001075781415581081</v>
+        <v>0.0001406386833250692</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>0.6205229999999999</v>
       </c>
       <c r="I7">
-        <v>0.004984053467425666</v>
+        <v>0.02833032029515766</v>
       </c>
       <c r="J7">
-        <v>0.004984053467425666</v>
+        <v>0.02833032029515767</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>118.338787</v>
       </c>
       <c r="O7">
-        <v>0.75433628289025</v>
+        <v>0.9529850468799925</v>
       </c>
       <c r="P7">
-        <v>0.75433628289025</v>
+        <v>0.9529850468799924</v>
       </c>
       <c r="Q7">
         <v>8.159104347288999</v>
@@ -883,10 +883,10 @@
         <v>73.43193912560099</v>
       </c>
       <c r="S7">
-        <v>0.003759652366344139</v>
+        <v>0.02699837161460603</v>
       </c>
       <c r="T7">
-        <v>0.003759652366344139</v>
+        <v>0.02699837161460603</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>0.6205229999999999</v>
       </c>
       <c r="I8">
-        <v>0.004984053467425666</v>
+        <v>0.02833032029515766</v>
       </c>
       <c r="J8">
-        <v>0.004984053467425666</v>
+        <v>0.02833032029515767</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.433165333333333</v>
+        <v>1.712817</v>
       </c>
       <c r="N8">
-        <v>4.299496</v>
+        <v>5.138451</v>
       </c>
       <c r="O8">
-        <v>0.02740661716383402</v>
+        <v>0.04138006727350978</v>
       </c>
       <c r="P8">
-        <v>0.02740661716383402</v>
+        <v>0.04138006727350978</v>
       </c>
       <c r="Q8">
-        <v>0.2964373507119999</v>
+        <v>0.354280781097</v>
       </c>
       <c r="R8">
-        <v>2.667936156408</v>
+        <v>3.188527029873</v>
       </c>
       <c r="S8">
-        <v>0.0001365960453058147</v>
+        <v>0.001172310559693704</v>
       </c>
       <c r="T8">
-        <v>0.0001365960453058147</v>
+        <v>0.001172310559693704</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>0.6205229999999999</v>
       </c>
       <c r="I9">
-        <v>0.004984053467425666</v>
+        <v>0.02833032029515766</v>
       </c>
       <c r="J9">
-        <v>0.004984053467425666</v>
+        <v>0.02833032029515767</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,28 +989,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.126152</v>
+        <v>0.02775933333333333</v>
       </c>
       <c r="N9">
-        <v>0.378456</v>
+        <v>0.083278</v>
       </c>
       <c r="O9">
-        <v>0.002412421992102324</v>
+        <v>0.000670639701031176</v>
       </c>
       <c r="P9">
-        <v>0.002412421992102323</v>
+        <v>0.000670639701031176</v>
       </c>
       <c r="Q9">
-        <v>0.026093405832</v>
+        <v>0.005741768265999999</v>
       </c>
       <c r="R9">
-        <v>0.234840652488</v>
+        <v>0.051675914394</v>
       </c>
       <c r="S9">
-        <v>1.202364019463152E-05</v>
+        <v>1.899943753286199E-05</v>
       </c>
       <c r="T9">
-        <v>1.202364019463151E-05</v>
+        <v>1.8999437532862E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,22 +1027,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.05816133333333334</v>
+        <v>0.147564</v>
       </c>
       <c r="H10">
-        <v>0.174484</v>
+        <v>0.442692</v>
       </c>
       <c r="I10">
-        <v>0.00140145906793189</v>
+        <v>0.02021134776971029</v>
       </c>
       <c r="J10">
-        <v>0.00140145906793189</v>
+        <v>0.02021134776971029</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1051,28 +1051,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>11.28709566666667</v>
+        <v>0.2054816666666667</v>
       </c>
       <c r="N10">
-        <v>33.861287</v>
+        <v>0.616445</v>
       </c>
       <c r="O10">
-        <v>0.2158446779538137</v>
+        <v>0.00496424614546655</v>
       </c>
       <c r="P10">
-        <v>0.2158446779538137</v>
+        <v>0.004964246145466549</v>
       </c>
       <c r="Q10">
-        <v>0.6564725334342223</v>
+        <v>0.03032169666</v>
       </c>
       <c r="R10">
-        <v>5.908252800908</v>
+        <v>0.27289526994</v>
       </c>
       <c r="S10">
-        <v>0.0003024974811832107</v>
+        <v>0.0001003341052604682</v>
       </c>
       <c r="T10">
-        <v>0.0003024974811832106</v>
+        <v>0.0001003341052604682</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.05816133333333334</v>
+        <v>0.147564</v>
       </c>
       <c r="H11">
-        <v>0.174484</v>
+        <v>0.442692</v>
       </c>
       <c r="I11">
-        <v>0.00140145906793189</v>
+        <v>0.02021134776971029</v>
       </c>
       <c r="J11">
-        <v>0.00140145906793189</v>
+        <v>0.02021134776971029</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>118.338787</v>
       </c>
       <c r="O11">
-        <v>0.75433628289025</v>
+        <v>0.9529850468799925</v>
       </c>
       <c r="P11">
-        <v>0.75433628289025</v>
+        <v>0.9529850468799924</v>
       </c>
       <c r="Q11">
-        <v>2.294247212323111</v>
+        <v>5.820848254955999</v>
       </c>
       <c r="R11">
-        <v>20.648224910908</v>
+        <v>52.387634294604</v>
       </c>
       <c r="S11">
-        <v>0.001057171423926576</v>
+        <v>0.01926111220182519</v>
       </c>
       <c r="T11">
-        <v>0.001057171423926576</v>
+        <v>0.01926111220182519</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.05816133333333334</v>
+        <v>0.147564</v>
       </c>
       <c r="H12">
-        <v>0.174484</v>
+        <v>0.442692</v>
       </c>
       <c r="I12">
-        <v>0.00140145906793189</v>
+        <v>0.02021134776971029</v>
       </c>
       <c r="J12">
-        <v>0.00140145906793189</v>
+        <v>0.02021134776971029</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.433165333333333</v>
+        <v>1.712817</v>
       </c>
       <c r="N12">
-        <v>4.299496</v>
+        <v>5.138451</v>
       </c>
       <c r="O12">
-        <v>0.02740661716383402</v>
+        <v>0.04138006727350978</v>
       </c>
       <c r="P12">
-        <v>0.02740661716383402</v>
+        <v>0.04138006727350978</v>
       </c>
       <c r="Q12">
-        <v>0.08335480667377777</v>
+        <v>0.252750127788</v>
       </c>
       <c r="R12">
-        <v>0.7501932600639999</v>
+        <v>2.274751150092</v>
       </c>
       <c r="S12">
-        <v>3.840925214559296E-05</v>
+        <v>0.0008363469303989137</v>
       </c>
       <c r="T12">
-        <v>3.840925214559296E-05</v>
+        <v>0.0008363469303989136</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,22 +1213,22 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.05816133333333334</v>
+        <v>0.147564</v>
       </c>
       <c r="H13">
-        <v>0.174484</v>
+        <v>0.442692</v>
       </c>
       <c r="I13">
-        <v>0.00140145906793189</v>
+        <v>0.02021134776971029</v>
       </c>
       <c r="J13">
-        <v>0.00140145906793189</v>
+        <v>0.02021134776971029</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1237,28 +1237,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.126152</v>
+        <v>0.02775933333333333</v>
       </c>
       <c r="N13">
-        <v>0.378456</v>
+        <v>0.083278</v>
       </c>
       <c r="O13">
-        <v>0.002412421992102324</v>
+        <v>0.000670639701031176</v>
       </c>
       <c r="P13">
-        <v>0.002412421992102323</v>
+        <v>0.000670639701031176</v>
       </c>
       <c r="Q13">
-        <v>0.007337168522666668</v>
+        <v>0.004096278264</v>
       </c>
       <c r="R13">
-        <v>0.066034516704</v>
+        <v>0.036866504376</v>
       </c>
       <c r="S13">
-        <v>3.380910676510116E-06</v>
+        <v>1.355453222571564E-05</v>
       </c>
       <c r="T13">
-        <v>3.380910676510114E-06</v>
+        <v>1.355453222571564E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>24.97709666666667</v>
+        <v>2.153144</v>
       </c>
       <c r="H14">
-        <v>74.93129</v>
+        <v>6.459432</v>
       </c>
       <c r="I14">
-        <v>0.6018496586640273</v>
+        <v>0.2949089356636109</v>
       </c>
       <c r="J14">
-        <v>0.6018496586640273</v>
+        <v>0.294908935663611</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1299,28 +1299,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>11.28709566666667</v>
+        <v>0.2054816666666667</v>
       </c>
       <c r="N14">
-        <v>33.861287</v>
+        <v>0.616445</v>
       </c>
       <c r="O14">
-        <v>0.2158446779538137</v>
+        <v>0.00496424614546655</v>
       </c>
       <c r="P14">
-        <v>0.2158446779538137</v>
+        <v>0.004964246145466549</v>
       </c>
       <c r="Q14">
-        <v>281.9188795522478</v>
+        <v>0.4424316176933333</v>
       </c>
       <c r="R14">
-        <v>2537.269915970231</v>
+        <v>3.98188455924</v>
       </c>
       <c r="S14">
-        <v>0.1299060457509496</v>
+        <v>0.001464000547131723</v>
       </c>
       <c r="T14">
-        <v>0.1299060457509496</v>
+        <v>0.001464000547131723</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>24.97709666666667</v>
+        <v>2.153144</v>
       </c>
       <c r="H15">
-        <v>74.93129</v>
+        <v>6.459432</v>
       </c>
       <c r="I15">
-        <v>0.6018496586640273</v>
+        <v>0.2949089356636109</v>
       </c>
       <c r="J15">
-        <v>0.6018496586640273</v>
+        <v>0.294908935663611</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>118.338787</v>
       </c>
       <c r="O15">
-        <v>0.75433628289025</v>
+        <v>0.9529850468799925</v>
       </c>
       <c r="P15">
-        <v>0.75433628289025</v>
+        <v>0.9529850468799924</v>
       </c>
       <c r="Q15">
-        <v>985.2531074383588</v>
+        <v>84.93348306544264</v>
       </c>
       <c r="R15">
-        <v>8867.27796694523</v>
+        <v>764.401347588984</v>
       </c>
       <c r="S15">
-        <v>0.4539970343753881</v>
+        <v>0.281043805878715</v>
       </c>
       <c r="T15">
-        <v>0.4539970343753881</v>
+        <v>0.281043805878715</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>24.97709666666667</v>
+        <v>2.153144</v>
       </c>
       <c r="H16">
-        <v>74.93129</v>
+        <v>6.459432</v>
       </c>
       <c r="I16">
-        <v>0.6018496586640273</v>
+        <v>0.2949089356636109</v>
       </c>
       <c r="J16">
-        <v>0.6018496586640273</v>
+        <v>0.294908935663611</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.433165333333333</v>
+        <v>1.712817</v>
       </c>
       <c r="N16">
-        <v>4.299496</v>
+        <v>5.138451</v>
       </c>
       <c r="O16">
-        <v>0.02740661716383402</v>
+        <v>0.04138006727350978</v>
       </c>
       <c r="P16">
-        <v>0.02740661716383402</v>
+        <v>0.04138006727350978</v>
       </c>
       <c r="Q16">
-        <v>35.79630906998222</v>
+        <v>3.687941646648</v>
       </c>
       <c r="R16">
-        <v>322.16678162984</v>
+        <v>33.191474819832</v>
       </c>
       <c r="S16">
-        <v>0.01649466318518918</v>
+        <v>0.01220335159731939</v>
       </c>
       <c r="T16">
-        <v>0.01649466318518918</v>
+        <v>0.01220335159731939</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>24.97709666666667</v>
+        <v>2.153144</v>
       </c>
       <c r="H17">
-        <v>74.93129</v>
+        <v>6.459432</v>
       </c>
       <c r="I17">
-        <v>0.6018496586640273</v>
+        <v>0.2949089356636109</v>
       </c>
       <c r="J17">
-        <v>0.6018496586640273</v>
+        <v>0.294908935663611</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1485,28 +1485,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.126152</v>
+        <v>0.02775933333333333</v>
       </c>
       <c r="N17">
-        <v>0.378456</v>
+        <v>0.083278</v>
       </c>
       <c r="O17">
-        <v>0.002412421992102324</v>
+        <v>0.000670639701031176</v>
       </c>
       <c r="P17">
-        <v>0.002412421992102323</v>
+        <v>0.000670639701031176</v>
       </c>
       <c r="Q17">
-        <v>3.150910698693334</v>
+        <v>0.05976984201066666</v>
       </c>
       <c r="R17">
-        <v>28.35819628824</v>
+        <v>0.537928578096</v>
       </c>
       <c r="S17">
-        <v>0.001451915352500376</v>
+        <v>0.0001977776404448664</v>
       </c>
       <c r="T17">
-        <v>0.001451915352500376</v>
+        <v>0.0001977776404448664</v>
       </c>
     </row>
   </sheetData>
